--- a/__repository/template_import/tbl_assets.xlsx
+++ b/__repository/template_import/tbl_assets.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
